--- a/Words before and after traits_v2.xlsx
+++ b/Words before and after traits_v2.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/ciarleri_staff_vuw_ac_nz/Documents/Desktop/Insular assembly rules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/simone_monaco_polito_it/Documents/Documenti/PoliTO/NewZeland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="928" documentId="11_F25DC773A252ABDACC10485469DC60605ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13FCFD46-C27C-47CE-B44E-C0FC674CED7E}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{B96F9A42-91C1-41E8-9842-B794338A7FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AF363CB-5CD3-4C5A-8357-B32EDC728E06}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="2" r:id="rId1"/>
     <sheet name="Words" sheetId="1" r:id="rId2"/>
-    <sheet name="Flower searches" sheetId="3" r:id="rId3"/>
-    <sheet name="IF" sheetId="4" r:id="rId4"/>
+    <sheet name="Words_legacy" sheetId="5" r:id="rId3"/>
+    <sheet name="Flower searches" sheetId="3" r:id="rId4"/>
+    <sheet name="IF" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,8 +28,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2D23C5D7-737E-44B9-8C65-12C2EDD86C5F}</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{2D23C5D7-737E-44B9-8C65-12C2EDD86C5F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    petiolules è una keyword che può andare qui?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="445">
   <si>
     <t>Stature</t>
   </si>
@@ -1327,13 +1346,49 @@
   </si>
   <si>
     <t>Ray floret size</t>
+  </si>
+  <si>
+    <t>Pistillate</t>
+  </si>
+  <si>
+    <t>Staminate</t>
+  </si>
+  <si>
+    <t>Tubes</t>
+  </si>
+  <si>
+    <t>Floret</t>
+  </si>
+  <si>
+    <t>Florets</t>
+  </si>
+  <si>
+    <t>Sparire long</t>
+  </si>
+  <si>
+    <t>Togliere ; prima di ogni misura</t>
+  </si>
+  <si>
+    <t>Stygma</t>
+  </si>
+  <si>
+    <t>Culms</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>Sessil</t>
+  </si>
+  <si>
+    <t>Ray</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1354,6 +1409,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1388,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1397,26 +1474,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1426,19 +1487,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,6 +1518,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Simone  Monaco" id="{3F739B71-14D4-4447-80E8-60C5A1936E17}" userId="S::simone.monaco@polito.it::681e8622-bdd4-4909-b697-8175fe219ecb" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1717,6 +1787,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D2" dT="2023-11-09T16:53:19.39" personId="{3F739B71-14D4-4447-80E8-60C5A1936E17}" id="{2D23C5D7-737E-44B9-8C65-12C2EDD86C5F}">
+    <text>petiolules è una keyword che può andare qui?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44F8C65-5ACD-4DAE-A8C7-72B9B0DF9C11}">
   <dimension ref="A1:B26"/>
@@ -1725,179 +1803,179 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1910,147 +1988,1676 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.44140625" style="3" customWidth="1"/>
+    <col min="19" max="20" width="12" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="12" style="3" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="F14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U34" s="2"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="K35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="V43" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DEC615-39EB-4857-AAA5-ED84157C4825}">
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="3" customWidth="1"/>
     <col min="15" max="15" width="13" style="3" customWidth="1"/>
     <col min="16" max="16" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.42578125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="12.44140625" style="3" customWidth="1"/>
     <col min="19" max="21" width="12" style="3" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" style="3" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -2099,16 +3706,16 @@
       <c r="P3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="3" t="s">
         <v>119</v>
       </c>
       <c r="U3" s="3" t="s">
@@ -2117,20 +3724,20 @@
       <c r="V3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -2197,20 +3804,20 @@
       <c r="V4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -2229,10 +3836,10 @@
       <c r="F5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="5" t="s">
         <v>329</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -2253,19 +3860,19 @@
       <c r="N5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="5" t="s">
         <v>328</v>
       </c>
       <c r="T5" s="3" t="s">
@@ -2277,17 +3884,17 @@
       <c r="V5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>73</v>
       </c>
@@ -2303,10 +3910,10 @@
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="5" t="s">
         <v>330</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -2318,28 +3925,28 @@
       <c r="K6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="5" t="s">
         <v>327</v>
       </c>
       <c r="T6" s="3" t="s">
@@ -2351,17 +3958,17 @@
       <c r="V6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>86</v>
       </c>
@@ -2371,44 +3978,44 @@
       <c r="C7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" s="5" t="s">
         <v>353</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>87</v>
       </c>
@@ -2425,16 +4032,16 @@
       <c r="I8" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="5" t="s">
         <v>358</v>
       </c>
       <c r="U8" s="3" t="s">
@@ -2444,7 +4051,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
@@ -2461,20 +4068,20 @@
       <c r="I9" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="5" t="s">
         <v>252</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V9" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>277</v>
       </c>
@@ -2482,24 +4089,23 @@
       <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="9"/>
       <c r="I10" s="3" t="s">
         <v>265</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="V10" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>278</v>
       </c>
@@ -2519,11 +4125,11 @@
       <c r="U11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>279</v>
       </c>
@@ -2540,11 +4146,11 @@
       <c r="U12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="V12" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>280</v>
       </c>
@@ -2561,33 +4167,33 @@
       <c r="U13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="V13" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>415</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="5" t="s">
         <v>382</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="V14" s="10" t="s">
+      <c r="V14" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>411</v>
       </c>
       <c r="B15" s="3"/>
@@ -2597,352 +4203,348 @@
       <c r="D15" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="5" t="s">
         <v>383</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="V15" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>412</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>376</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="U16" s="7" t="s">
+      <c r="U16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="V16" s="10" t="s">
+      <c r="V16" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>413</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>377</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>414</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>416</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="U19" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="U23" s="10" t="s">
+      <c r="U23" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="U24" s="10" t="s">
+      <c r="U24" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="U25" s="10" t="s">
+      <c r="U25" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="U26" s="10" t="s">
+      <c r="U26" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="U27" s="10" t="s">
+      <c r="U27" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="U28" s="10" t="s">
+      <c r="U28" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="U29" s="10" t="s">
+      <c r="U29" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="U30" s="10" t="s">
+      <c r="U30" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="U31" s="10" t="s">
+      <c r="U31" s="5" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="U32" s="9"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="U33" s="9"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="U34" s="9"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="U35" s="9"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="P37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q37" s="5" t="s">
+      <c r="Q37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="S37" s="5" t="s">
+      <c r="S37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="T37" s="5" t="s">
+      <c r="T37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="U37" s="5" t="s">
+      <c r="U37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V37" s="5" t="s">
+      <c r="V37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="W37" s="3" t="s">
@@ -2952,7 +4554,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -3026,7 +4628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -3100,7 +4702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>154</v>
       </c>
@@ -3174,7 +4776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>155</v>
       </c>
@@ -3248,8 +4850,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -3274,7 +4876,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3294,7 +4896,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D44" s="3" t="s">
         <v>46</v>
       </c>
@@ -3308,11 +4910,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D45" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="5" t="s">
         <v>427</v>
       </c>
       <c r="U45" s="3" t="s">
@@ -3322,22 +4924,22 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V46" s="3" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
     <mergeCell ref="A36:V36"/>
-    <mergeCell ref="A1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F3B4F2-2D7E-48BD-B45D-E85DB15729D5}">
   <dimension ref="A1:D111"/>
   <sheetViews>
@@ -3345,15 +4947,15 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -3367,7 +4969,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -3381,7 +4983,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>131</v>
@@ -3393,7 +4995,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -3402,7 +5004,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>133</v>
@@ -3411,7 +5013,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>134</v>
@@ -3420,631 +5022,631 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="4" t="s">
+      <c r="B99" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
     </row>
@@ -4053,29 +5655,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DA1169-2C93-47A0-96CD-8055F1566B0F}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="139" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="123" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>303</v>
       </c>
@@ -4083,7 +5685,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>304</v>
       </c>
@@ -4091,7 +5693,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>305</v>
       </c>
@@ -4099,7 +5701,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>306</v>
       </c>
@@ -4107,7 +5709,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -4115,7 +5717,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>276</v>
       </c>
@@ -4123,7 +5725,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -4131,7 +5733,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>289</v>
       </c>
@@ -4139,7 +5741,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>287</v>
       </c>
@@ -4147,7 +5749,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>288</v>
       </c>
@@ -4155,7 +5757,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>300</v>
       </c>
@@ -4163,7 +5765,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -4171,145 +5773,153 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>426</v>
       </c>
     </row>

--- a/Words before and after traits_v2.xlsx
+++ b/Words before and after traits_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/simone_monaco_polito_it/Documents/Documenti/PoliTO/NewZeland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{B96F9A42-91C1-41E8-9842-B794338A7FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AF363CB-5CD3-4C5A-8357-B32EDC728E06}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{B96F9A42-91C1-41E8-9842-B794338A7FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCE563CF-4414-47BA-AA25-9F1E30788244}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="-11880" windowWidth="29070" windowHeight="16470" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,21 @@
     <sheet name="Flower searches" sheetId="3" r:id="rId4"/>
     <sheet name="IF" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -32,6 +43,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={2D23C5D7-737E-44B9-8C65-12C2EDD86C5F}</author>
+    <author>tc={EEFFEBC7-C7DF-4808-BF61-6D48CB0DEF1A}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{2D23C5D7-737E-44B9-8C65-12C2EDD86C5F}">
@@ -42,12 +54,56 @@
     petiolules è una keyword che può andare qui?</t>
       </text>
     </comment>
+    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{EEFFEBC7-C7DF-4808-BF61-6D48CB0DEF1A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Va bene?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={979F3229-ADD2-4D84-9477-0AC6DCB6C481}</author>
+    <author>tc={414063AF-5C60-442F-84C4-5A13DCE5A611}</author>
+    <author>tc={F5733F7B-D2E1-4945-97E9-C1690D7903B1}</author>
+  </authors>
+  <commentList>
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{979F3229-ADD2-4D84-9477-0AC6DCB6C481}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Modo pigro mio per mostrarti le cose, l'importante è che non venga preso come misura in qualche feature, se te la mostra solo come "Null" va bene</t>
+      </text>
+    </comment>
+    <comment ref="A42" authorId="1" shapeId="0" xr:uid="{414063AF-5C60-442F-84C4-5A13DCE5A611}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Anche qui, vuol dire che l'ha trovato ma nel passaggio successivo non lo riconosce è solo un problema di "visualizzazione". Fa fede l'elenco in fondo a ogni testo</t>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="2" shapeId="0" xr:uid="{F5733F7B-D2E1-4945-97E9-C1690D7903B1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dovrebbe essere Stature? Pare manchi "Height" come keyword, aggiungendo quella si dovrebbe risolvere.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="484">
   <si>
     <t>Stature</t>
   </si>
@@ -55,382 +111,826 @@
     <t>Petiole</t>
   </si>
   <si>
+    <t>Petiole size</t>
+  </si>
+  <si>
     <t>Leaf</t>
   </si>
   <si>
     <t>Leaf size</t>
   </si>
   <si>
-    <t>Petiole size</t>
+    <t>Inflorescence</t>
+  </si>
+  <si>
+    <t>Inflorescence size</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>Flower size</t>
   </si>
   <si>
     <t>Pedicel size</t>
   </si>
   <si>
+    <t>Calix size</t>
+  </si>
+  <si>
+    <t>Corolla size</t>
+  </si>
+  <si>
+    <t>Tube size</t>
+  </si>
+  <si>
+    <t>Lobes size</t>
+  </si>
+  <si>
+    <t>Petal size</t>
+  </si>
+  <si>
+    <t>Ovary size</t>
+  </si>
+  <si>
+    <t>Stigma size</t>
+  </si>
+  <si>
+    <t>Style size</t>
+  </si>
+  <si>
+    <t>Stamen size</t>
+  </si>
+  <si>
+    <t>Anther size</t>
+  </si>
+  <si>
+    <t>Lemma</t>
+  </si>
+  <si>
+    <t>Palea</t>
+  </si>
+  <si>
+    <t>Lodicules</t>
+  </si>
+  <si>
+    <t>Ray floret size</t>
+  </si>
+  <si>
+    <t>Disk floret size</t>
+  </si>
+  <si>
+    <t>Sepal size</t>
+  </si>
+  <si>
+    <t>Glumes</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Fruit size</t>
+  </si>
+  <si>
+    <t>Pappus size</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Seed size</t>
+  </si>
+  <si>
+    <t>Preceding words</t>
+  </si>
+  <si>
+    <t>Calyx size</t>
+  </si>
+  <si>
+    <t>Ray florets size</t>
+  </si>
+  <si>
+    <t>Utricle size</t>
+  </si>
+  <si>
+    <t>Approximately</t>
+  </si>
+  <si>
+    <t>Endocarp</t>
+  </si>
+  <si>
+    <t>Drupe</t>
+  </si>
+  <si>
+    <t>Petioles</t>
+  </si>
+  <si>
+    <t>Lamina</t>
+  </si>
+  <si>
+    <t>Racemes</t>
+  </si>
+  <si>
+    <t>Pedicels</t>
+  </si>
+  <si>
+    <t>Calyx</t>
+  </si>
+  <si>
     <t>Corolla</t>
   </si>
   <si>
     <t>Tube</t>
   </si>
   <si>
-    <t>Flower size</t>
+    <t xml:space="preserve">Lobes </t>
+  </si>
+  <si>
+    <t>Ovary</t>
+  </si>
+  <si>
+    <t>Stigma</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Stamens</t>
+  </si>
+  <si>
+    <t>Anthers</t>
   </si>
   <si>
     <t>Petal</t>
   </si>
   <si>
-    <t>Calix size</t>
-  </si>
-  <si>
-    <t>Corolla size</t>
-  </si>
-  <si>
-    <t>Tube size</t>
-  </si>
-  <si>
-    <t>Petal size</t>
-  </si>
-  <si>
-    <t>Lobes size</t>
-  </si>
-  <si>
-    <t>Ovary size</t>
-  </si>
-  <si>
-    <t>Anther size</t>
-  </si>
-  <si>
-    <t>Stigma size</t>
-  </si>
-  <si>
-    <t>Fruit size</t>
-  </si>
-  <si>
-    <t>Seed size</t>
-  </si>
-  <si>
-    <t>Flower</t>
-  </si>
-  <si>
-    <t>Fruit</t>
-  </si>
-  <si>
-    <t>Seed</t>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Pappus</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Sepal</t>
+  </si>
+  <si>
+    <t>Disk-florets</t>
+  </si>
+  <si>
+    <t>Utricles</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Mericarps</t>
+  </si>
+  <si>
+    <t>Inflorescences</t>
+  </si>
+  <si>
+    <t>Pedicel</t>
+  </si>
+  <si>
+    <t>Calyx tube</t>
+  </si>
+  <si>
+    <t>Corollas</t>
+  </si>
+  <si>
+    <t>Tubes</t>
+  </si>
+  <si>
+    <t>Lobe</t>
+  </si>
+  <si>
+    <t>Ovaries</t>
+  </si>
+  <si>
+    <t>Sessil</t>
+  </si>
+  <si>
+    <t>Styles</t>
+  </si>
+  <si>
+    <t>Stamen</t>
+  </si>
+  <si>
+    <t>Anther</t>
+  </si>
+  <si>
+    <t>Lemmas</t>
+  </si>
+  <si>
+    <t>Paleas</t>
+  </si>
+  <si>
+    <t>Lodicule</t>
+  </si>
+  <si>
+    <t>Glume</t>
+  </si>
+  <si>
+    <t>Petals</t>
+  </si>
+  <si>
+    <t>Pappi</t>
+  </si>
+  <si>
+    <t>Ray-florets</t>
+  </si>
+  <si>
+    <t>Sepals</t>
+  </si>
+  <si>
+    <t>Disk florets</t>
+  </si>
+  <si>
+    <t>Utricle</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Seeds</t>
+  </si>
+  <si>
+    <t>Capsule</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>Calyx tubes</t>
+  </si>
+  <si>
+    <t>Stigma-style</t>
+  </si>
+  <si>
+    <t>Filament</t>
+  </si>
+  <si>
+    <t>Tepals</t>
+  </si>
+  <si>
+    <t>Capitula</t>
+  </si>
+  <si>
+    <t>Pappus-hairs</t>
+  </si>
+  <si>
+    <t>Ray-floret</t>
+  </si>
+  <si>
+    <t>Disk floret</t>
+  </si>
+  <si>
+    <t>Shrub</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>Juveniles</t>
+  </si>
+  <si>
+    <t>Umbels</t>
+  </si>
+  <si>
+    <t>Calyx lobes</t>
+  </si>
+  <si>
+    <t>Stigma-styles</t>
+  </si>
+  <si>
+    <t>Filaments</t>
+  </si>
+  <si>
+    <t>Tepal</t>
+  </si>
+  <si>
+    <t>Capitulum</t>
+  </si>
+  <si>
+    <t>Pappus-hair</t>
+  </si>
+  <si>
+    <t>Floret</t>
+  </si>
+  <si>
+    <t>Disk-floret</t>
+  </si>
+  <si>
+    <t>Shrubs</t>
+  </si>
+  <si>
+    <t>Cypsela</t>
+  </si>
+  <si>
+    <t>Nutlet</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>Panicle</t>
+  </si>
+  <si>
+    <t>Stygma</t>
+  </si>
+  <si>
+    <t>Cones</t>
+  </si>
+  <si>
+    <t>Florets</t>
+  </si>
+  <si>
+    <t>Herb</t>
+  </si>
+  <si>
+    <t>Endocarps</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Panicles</t>
+  </si>
+  <si>
+    <t>Stygmas</t>
+  </si>
+  <si>
+    <t>Cone</t>
+  </si>
+  <si>
+    <t>Herbs</t>
+  </si>
+  <si>
+    <t>Mericarp</t>
+  </si>
+  <si>
+    <t>Achene</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>Perianth</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>Pyrene</t>
+  </si>
+  <si>
+    <t>Caryopsis</t>
+  </si>
+  <si>
+    <t>Leaf-blade</t>
+  </si>
+  <si>
+    <t>Spikes</t>
+  </si>
+  <si>
+    <t>Perianths</t>
+  </si>
+  <si>
+    <t>Pyrenes</t>
+  </si>
+  <si>
+    <t>Fronds</t>
+  </si>
+  <si>
+    <t>Corymb</t>
+  </si>
+  <si>
+    <t>Flowerheads</t>
+  </si>
+  <si>
+    <t>Cypselae</t>
+  </si>
+  <si>
+    <t>Follicle</t>
+  </si>
+  <si>
+    <t>Leaflets</t>
+  </si>
+  <si>
+    <t>Compound corymb</t>
+  </si>
+  <si>
+    <t>Flowerhead</t>
+  </si>
+  <si>
+    <t>Cypselas</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Leaflet</t>
+  </si>
+  <si>
+    <t>Compound umbel</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Schizocarp</t>
+  </si>
+  <si>
+    <t>Culm</t>
+  </si>
+  <si>
+    <t>Heads</t>
+  </si>
+  <si>
+    <t>Stones</t>
+  </si>
+  <si>
+    <t>Silique</t>
+  </si>
+  <si>
+    <t>Pistillate</t>
+  </si>
+  <si>
+    <t>Siliques</t>
+  </si>
+  <si>
+    <t>Umbel</t>
+  </si>
+  <si>
+    <t>Staminate</t>
+  </si>
+  <si>
+    <t>Achenes</t>
+  </si>
+  <si>
+    <t>Mesocarp</t>
+  </si>
+  <si>
+    <t>Raceme</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>Mesocarps</t>
+  </si>
+  <si>
+    <t>Corymbs</t>
+  </si>
+  <si>
+    <t>Disks</t>
+  </si>
+  <si>
+    <t>Drupes</t>
+  </si>
+  <si>
+    <t>Perianthe</t>
+  </si>
+  <si>
+    <t>Capsules</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>Nutlets</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Schizocarps</t>
+  </si>
+  <si>
+    <t>Follicles</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Following words</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>m tall</t>
+  </si>
+  <si>
+    <t>mm.</t>
+  </si>
+  <si>
+    <t>mm long</t>
+  </si>
+  <si>
+    <t>cm tall</t>
+  </si>
+  <si>
+    <t>mm long.</t>
+  </si>
+  <si>
+    <t>mm tall</t>
+  </si>
+  <si>
+    <t>mm diam.</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>mm diam</t>
+  </si>
+  <si>
+    <t>cm long</t>
+  </si>
+  <si>
+    <t>mm diameter</t>
+  </si>
+  <si>
+    <t>diam.</t>
+  </si>
+  <si>
+    <t>mmlong</t>
+  </si>
+  <si>
+    <t>mm diamter</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>cm diameter</t>
+  </si>
+  <si>
+    <t>cm diam.</t>
+  </si>
+  <si>
+    <t>across</t>
   </si>
   <si>
     <t>Up to</t>
   </si>
   <si>
-    <t xml:space="preserve">Lobes </t>
-  </si>
-  <si>
-    <t>Ovary</t>
-  </si>
-  <si>
-    <t>Stigma</t>
+    <t>Ray florets</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Leaf lamina</t>
+  </si>
+  <si>
+    <t>Flowers c.</t>
+  </si>
+  <si>
+    <t>Pedicels c.</t>
+  </si>
+  <si>
+    <t>Calyx c.</t>
+  </si>
+  <si>
+    <t>Corolla c.</t>
+  </si>
+  <si>
+    <t>Tube c.</t>
+  </si>
+  <si>
+    <t>Lobes c.</t>
+  </si>
+  <si>
+    <t>Ovary c.</t>
   </si>
   <si>
     <t>Stigma sessil</t>
   </si>
   <si>
-    <t>Drupe</t>
-  </si>
-  <si>
-    <t>Endocarp</t>
-  </si>
-  <si>
-    <t>Anthers</t>
-  </si>
-  <si>
-    <t>Petioles</t>
-  </si>
-  <si>
-    <t>Lamina</t>
-  </si>
-  <si>
-    <t>Pedicels</t>
-  </si>
-  <si>
-    <t>Petals</t>
-  </si>
-  <si>
-    <t>Preceding words</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Leaf lamina</t>
-  </si>
-  <si>
-    <t>Mericarps</t>
+    <t>Stamens c.</t>
+  </si>
+  <si>
+    <t>Anthers c.</t>
+  </si>
+  <si>
+    <t>Lemma c.</t>
+  </si>
+  <si>
+    <t>Palea c.</t>
+  </si>
+  <si>
+    <t>Lodicules c.</t>
+  </si>
+  <si>
+    <t>Glumes c.</t>
+  </si>
+  <si>
+    <t>Ray floret</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>Petioles c.</t>
   </si>
   <si>
     <t>Juvenile leaves</t>
   </si>
   <si>
+    <t>Floral tube</t>
+  </si>
+  <si>
+    <t>Corolla lobes</t>
+  </si>
+  <si>
+    <t>Stigma c.</t>
+  </si>
+  <si>
+    <t>Style c.</t>
+  </si>
+  <si>
+    <t>Stamen c.</t>
+  </si>
+  <si>
+    <t>Lodicule c.</t>
+  </si>
+  <si>
+    <t>Petioles up to</t>
+  </si>
+  <si>
     <t>Adult leaves</t>
   </si>
   <si>
-    <t>Lobes c.</t>
-  </si>
-  <si>
-    <t>Stamen size</t>
-  </si>
-  <si>
-    <t>Stamens</t>
-  </si>
-  <si>
-    <t>Capsule</t>
-  </si>
-  <si>
-    <t>Following words</t>
-  </si>
-  <si>
-    <t>m tall</t>
-  </si>
-  <si>
-    <t>mm long</t>
-  </si>
-  <si>
-    <t>mm diam</t>
-  </si>
-  <si>
-    <t>Flowers</t>
-  </si>
-  <si>
-    <t>Berry</t>
-  </si>
-  <si>
-    <t>Seeds</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>Petioles c.</t>
-  </si>
-  <si>
-    <t>cm long</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>Flowers c.</t>
-  </si>
-  <si>
-    <t>Pedicels c.</t>
-  </si>
-  <si>
-    <t>Corolla c.</t>
-  </si>
-  <si>
-    <t>Tube c.</t>
+    <t>Corollas c.</t>
+  </si>
+  <si>
+    <t>Corolla tube</t>
+  </si>
+  <si>
+    <t>Corolla lobe</t>
   </si>
   <si>
     <t>Petals c.</t>
   </si>
   <si>
-    <t>Ovary c.</t>
-  </si>
-  <si>
-    <t>Stigma c.</t>
-  </si>
-  <si>
-    <t>Stamens c.</t>
-  </si>
-  <si>
-    <t>Anthers c.</t>
+    <t>Anther c.</t>
+  </si>
+  <si>
+    <t>Lemmas c.</t>
+  </si>
+  <si>
+    <t>Paleas c.</t>
+  </si>
+  <si>
+    <t>Glume c.</t>
+  </si>
+  <si>
+    <t>Petiole up to</t>
+  </si>
+  <si>
+    <t>Rays</t>
+  </si>
+  <si>
+    <t>Male cones</t>
+  </si>
+  <si>
+    <t>Corolla tubes</t>
+  </si>
+  <si>
+    <t>Ovaries c.</t>
   </si>
   <si>
     <t>Seeds c.</t>
   </si>
   <si>
-    <t>Leaves</t>
-  </si>
-  <si>
-    <t>Tepals</t>
+    <t>Female cones</t>
+  </si>
+  <si>
+    <t>Tube of</t>
+  </si>
+  <si>
+    <t>Perianth lobes</t>
   </si>
   <si>
     <t>up to</t>
   </si>
   <si>
-    <t>Capitula</t>
-  </si>
-  <si>
-    <t>Cypsela</t>
-  </si>
-  <si>
-    <t>Pappus</t>
-  </si>
-  <si>
-    <t>Approximately</t>
-  </si>
-  <si>
-    <t>mm diameter</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Fruits</t>
-  </si>
-  <si>
-    <t>Juveniles</t>
-  </si>
-  <si>
-    <t>Juvenile</t>
-  </si>
-  <si>
-    <t>Adult</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Male cones</t>
-  </si>
-  <si>
-    <t>Female cones</t>
-  </si>
-  <si>
-    <t>Cones</t>
-  </si>
-  <si>
-    <t>Cone</t>
-  </si>
-  <si>
-    <t>mm diam.</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>Shrub</t>
-  </si>
-  <si>
-    <t>Herb</t>
-  </si>
-  <si>
-    <t>Perianth</t>
-  </si>
-  <si>
-    <t>mm diamter</t>
-  </si>
-  <si>
-    <t>cm diameter</t>
-  </si>
-  <si>
-    <t>cm diam.</t>
-  </si>
-  <si>
-    <t>Inflorescence</t>
-  </si>
-  <si>
-    <t>Inflorescence size</t>
-  </si>
-  <si>
-    <t>Racemes</t>
-  </si>
-  <si>
-    <t>Inflorescences</t>
-  </si>
-  <si>
-    <t>Umbels</t>
-  </si>
-  <si>
-    <t>mm.</t>
-  </si>
-  <si>
-    <t>Rays</t>
-  </si>
-  <si>
-    <t>mm long.</t>
-  </si>
-  <si>
-    <t>Style size</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Styles</t>
-  </si>
-  <si>
-    <t>Style c.</t>
-  </si>
-  <si>
-    <t>Leaf-blade</t>
+    <t>tube of female flowers</t>
+  </si>
+  <si>
+    <t>Perianth lobe</t>
+  </si>
+  <si>
+    <t>Tree up to</t>
+  </si>
+  <si>
+    <t>tube of hermaphrodite flowers</t>
+  </si>
+  <si>
+    <t>Shrub up to</t>
+  </si>
+  <si>
+    <t>tube of male flowers</t>
+  </si>
+  <si>
+    <t>Leafy shrub up to</t>
+  </si>
+  <si>
+    <t>Herb up to</t>
   </si>
   <si>
     <t>Leaf blade</t>
   </si>
   <si>
-    <t>Panicle</t>
-  </si>
-  <si>
-    <t>Achene</t>
-  </si>
-  <si>
-    <t>Caryopsis</t>
-  </si>
-  <si>
-    <t>Follicle</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Schizocarp</t>
-  </si>
-  <si>
-    <t>Silique</t>
-  </si>
-  <si>
-    <t>Panicles</t>
-  </si>
-  <si>
-    <t>Culm</t>
-  </si>
-  <si>
-    <t>Lemma</t>
-  </si>
-  <si>
-    <t>Palea</t>
-  </si>
-  <si>
-    <t>Lodicules</t>
-  </si>
-  <si>
-    <t>Glumes</t>
-  </si>
-  <si>
-    <t>Lemma c.</t>
-  </si>
-  <si>
-    <t>Palea c.</t>
-  </si>
-  <si>
-    <t>Lodicules c.</t>
-  </si>
-  <si>
-    <t>Glumes c.</t>
-  </si>
-  <si>
-    <t>Glume</t>
-  </si>
-  <si>
-    <t>Glume c.</t>
-  </si>
-  <si>
-    <t>Spike</t>
-  </si>
-  <si>
-    <t>Spikes</t>
+    <t>Perianth c.</t>
+  </si>
+  <si>
+    <t>Trees up to</t>
+  </si>
+  <si>
+    <t>Fronds up to</t>
+  </si>
+  <si>
+    <t>Shrubs up to</t>
+  </si>
+  <si>
+    <t>Herbs up to</t>
+  </si>
+  <si>
+    <t>Culm up to</t>
+  </si>
+  <si>
+    <t>Culms up to</t>
+  </si>
+  <si>
+    <t>Flowering stem</t>
+  </si>
+  <si>
+    <t>Flowering stem up to</t>
+  </si>
+  <si>
+    <t>Pistillate head</t>
+  </si>
+  <si>
+    <t>Flower stem</t>
+  </si>
+  <si>
+    <t>Pistillate heads</t>
+  </si>
+  <si>
+    <t>Flower stem up to</t>
+  </si>
+  <si>
+    <t>Staminate heads</t>
+  </si>
+  <si>
+    <t>Spikes male</t>
+  </si>
+  <si>
+    <t>Staminate head</t>
+  </si>
+  <si>
+    <t>Spikes female</t>
+  </si>
+  <si>
+    <t>Flower heads</t>
+  </si>
+  <si>
+    <t>Male spikes</t>
+  </si>
+  <si>
+    <t>Flower head</t>
+  </si>
+  <si>
+    <t>Female spikes</t>
+  </si>
+  <si>
+    <t>Male spike</t>
+  </si>
+  <si>
+    <t>Female spike</t>
+  </si>
+  <si>
+    <t>Achene c.</t>
+  </si>
+  <si>
+    <t>Achenes c.</t>
   </si>
   <si>
     <t>For inflorescence and flower</t>
@@ -439,33 +939,57 @@
     <t>Acanthaceae</t>
   </si>
   <si>
+    <t>Cyperaceae</t>
+  </si>
+  <si>
+    <t>Cupressaceae</t>
+  </si>
+  <si>
+    <t>Three separate searches</t>
+  </si>
+  <si>
     <t>Aizoaceae</t>
   </si>
   <si>
+    <t>Juncaceae</t>
+  </si>
+  <si>
+    <t>Podocarpaceae</t>
+  </si>
+  <si>
     <t>Amaranthaceae</t>
   </si>
   <si>
+    <t>Juncaginaceae</t>
+  </si>
+  <si>
+    <t>Araucariaceae</t>
+  </si>
+  <si>
     <t>Apiaceae</t>
   </si>
   <si>
+    <t>Poaceae</t>
+  </si>
+  <si>
     <t>Apocynaceae</t>
   </si>
   <si>
+    <t>Restionaceae</t>
+  </si>
+  <si>
     <t>Araceae</t>
   </si>
   <si>
+    <t>Potamogetonaceae</t>
+  </si>
+  <si>
     <t>Araliaceae</t>
   </si>
   <si>
     <t>Arecaceae</t>
   </si>
   <si>
-    <t>Fronds</t>
-  </si>
-  <si>
-    <t>Fronds up to</t>
-  </si>
-  <si>
     <t>Argophyllaceae</t>
   </si>
   <si>
@@ -490,12 +1014,12 @@
     <t>Brassicaceae</t>
   </si>
   <si>
+    <t>Burmanniaceae</t>
+  </si>
+  <si>
     <t>Calceolariaceae</t>
   </si>
   <si>
-    <t>Burmanniaceae</t>
-  </si>
-  <si>
     <t>Campanulaceae</t>
   </si>
   <si>
@@ -511,12 +1035,6 @@
     <t>Centrolepidaceae</t>
   </si>
   <si>
-    <t>cm tall</t>
-  </si>
-  <si>
-    <t>mm tall</t>
-  </si>
-  <si>
     <t>Chloranthaceae</t>
   </si>
   <si>
@@ -526,9 +1044,6 @@
     <t>Convolvulacae</t>
   </si>
   <si>
-    <t>Restionaceae</t>
-  </si>
-  <si>
     <t>Coriariaceae</t>
   </si>
   <si>
@@ -544,9 +1059,6 @@
     <t>Cunoniaceae</t>
   </si>
   <si>
-    <t>Cyperaceae</t>
-  </si>
-  <si>
     <t>Droseraceae</t>
   </si>
   <si>
@@ -601,12 +1113,6 @@
     <t>Iridaceae</t>
   </si>
   <si>
-    <t>Juncaceae</t>
-  </si>
-  <si>
-    <t>Juncaginaceae</t>
-  </si>
-  <si>
     <t>Lamiaceae</t>
   </si>
   <si>
@@ -652,12 +1158,12 @@
     <t>Moraceae</t>
   </si>
   <si>
+    <t>Scrophulariaceae</t>
+  </si>
+  <si>
     <t>Myrtaceae</t>
   </si>
   <si>
-    <t>Scrophulariaceae</t>
-  </si>
-  <si>
     <t>Nanodeaceae</t>
   </si>
   <si>
@@ -670,9 +1176,6 @@
     <t>Oleaceae</t>
   </si>
   <si>
-    <t>Capitulum</t>
-  </si>
-  <si>
     <t>Mystropetalaceae</t>
   </si>
   <si>
@@ -682,9 +1185,6 @@
     <t>Orchidaceae</t>
   </si>
   <si>
-    <t>Floral tube</t>
-  </si>
-  <si>
     <t>Orobanchaceae</t>
   </si>
   <si>
@@ -718,15 +1218,9 @@
     <t>Plantaginaceae</t>
   </si>
   <si>
-    <t>Poaceae</t>
-  </si>
-  <si>
     <t>Polygonaceae</t>
   </si>
   <si>
-    <t>Potamogetonaceae</t>
-  </si>
-  <si>
     <t>Primulaceae</t>
   </si>
   <si>
@@ -745,18 +1239,6 @@
     <t>Rosaceae</t>
   </si>
   <si>
-    <t>Corymb</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>Compound corymb</t>
-  </si>
-  <si>
-    <t>Compound umbel</t>
-  </si>
-  <si>
     <t>Rousseaceae</t>
   </si>
   <si>
@@ -805,64 +1287,37 @@
     <t>Winteraceae</t>
   </si>
   <si>
-    <t>Tepal</t>
-  </si>
-  <si>
     <t>Xeronemataceae</t>
   </si>
   <si>
     <t>Zosteraceae</t>
   </si>
   <si>
-    <t>Cupressaceae</t>
-  </si>
-  <si>
-    <t>Podocarpaceae</t>
-  </si>
-  <si>
-    <t>Araucariaceae</t>
-  </si>
-  <si>
-    <t>Three separate searches</t>
-  </si>
-  <si>
-    <t>Corolla lobes</t>
-  </si>
-  <si>
-    <t>Corolla tube</t>
-  </si>
-  <si>
-    <t>Corolla lobe</t>
-  </si>
-  <si>
-    <t>Corolla tubes</t>
-  </si>
-  <si>
-    <t>Tube of</t>
-  </si>
-  <si>
-    <t>tube of female flowers</t>
-  </si>
-  <si>
-    <t>tube of hermaphrodite flowers</t>
-  </si>
-  <si>
-    <t>tube of male flowers</t>
-  </si>
-  <si>
     <t>IF</t>
   </si>
   <si>
+    <t>THEN</t>
+  </si>
+  <si>
+    <t>"Stigma" and "style" are both present within the string</t>
+  </si>
+  <si>
+    <t>Place values in both stigma and style categories</t>
+  </si>
+  <si>
+    <t>"Cypselae" is present within the string</t>
+  </si>
+  <si>
     <t>Place in both seed and fruit categories</t>
   </si>
   <si>
-    <t>THEN</t>
-  </si>
-  <si>
-    <t>Culm up to</t>
-  </si>
-  <si>
-    <t>Culms up to</t>
+    <t>"Cypsela" is present within the string</t>
+  </si>
+  <si>
+    <t>"(" and ")" are detected within the string</t>
+  </si>
+  <si>
+    <t>Remove them, along with everything within them. Then repeat search.</t>
   </si>
   <si>
     <t>"petiole" or "petioles" are contained in the string</t>
@@ -871,268 +1326,61 @@
     <t>Place values in petiol size, ignoring all other words</t>
   </si>
   <si>
-    <t>Petioles up to</t>
-  </si>
-  <si>
-    <t>Petiole up to</t>
-  </si>
-  <si>
     <t>"Anther" or "Anthers" are contained in the string</t>
   </si>
   <si>
-    <t>Tree up to</t>
-  </si>
-  <si>
-    <t>Shrub up to</t>
-  </si>
-  <si>
-    <t>Leafy shrub up to</t>
-  </si>
-  <si>
-    <t>Herb up to</t>
-  </si>
-  <si>
-    <t>Pedicel</t>
+    <t>Place values in anther size, ignoring all other words</t>
   </si>
   <si>
     <t>"Pedicel" or "Pedicels" are contained in the string</t>
   </si>
   <si>
-    <t>Place values in anther size, ignoring all other words</t>
-  </si>
-  <si>
     <t>Place values in pedicel size, ignoring all other words</t>
   </si>
   <si>
-    <t>Place values in both stigma and style categories</t>
+    <t>word is a derivation of a key word (e.g. fruit-ing, flower-ing, leaf-y, anti-petal-ous)</t>
+  </si>
+  <si>
+    <t>Ignore/remove that word from the string. This should not apply if such words are part of multiple word key (e.g. "flowering stem")</t>
+  </si>
+  <si>
+    <t>word for fruit size is used, except cypsela or cypselae</t>
   </si>
   <si>
     <t>Ignore other words and place in fruit size</t>
   </si>
   <si>
-    <t>word for fruit size is used, except cypsela or cypselae</t>
-  </si>
-  <si>
     <t>"achene" or "achenes" are contained in the string</t>
   </si>
   <si>
-    <t>word is a derivation of a key word (e.g. fruit-ing, flower-ing, leaf-y, anti-petal-ous)</t>
-  </si>
-  <si>
-    <t>Flowering stem</t>
-  </si>
-  <si>
-    <t>Flowering stem up to</t>
-  </si>
-  <si>
-    <t>Flower stem</t>
-  </si>
-  <si>
-    <t>Flower stem up to</t>
-  </si>
-  <si>
-    <t>Calyx size</t>
-  </si>
-  <si>
-    <t>Calyx</t>
-  </si>
-  <si>
-    <t>Calyx c.</t>
-  </si>
-  <si>
-    <t>Calyx tube</t>
-  </si>
-  <si>
-    <t>Calyx tubes</t>
-  </si>
-  <si>
-    <t>Calyx lobes</t>
-  </si>
-  <si>
     <t>"Calyx" is present within the string</t>
   </si>
   <si>
+    <t>Place values in calyx size, ignoring all other words</t>
+  </si>
+  <si>
     <t>"hermaphrodite", "hermaphroditic", "male" or "female" are found within the string</t>
   </si>
   <si>
     <t>Store the word, then remove it, and repeat the search. Place what is found in the appropriate trait column, but add the stored word in.</t>
   </si>
   <si>
-    <t>"Stigma" and "style" are both present within the string</t>
-  </si>
-  <si>
-    <t>"Cypselae" is present within the string</t>
-  </si>
-  <si>
-    <t>"Cypsela" is present within the string</t>
-  </si>
-  <si>
-    <t>"(" and ")" are detected within the string</t>
-  </si>
-  <si>
-    <t>Remove them, along with everything within them. Then repeat search.</t>
-  </si>
-  <si>
-    <t>Ignore/remove that word from the string. This should not apply if such words are part of multiple word key (e.g. "flowering stem")</t>
-  </si>
-  <si>
-    <t>Place values in calyx size, ignoring all other words</t>
-  </si>
-  <si>
-    <t>Sepal</t>
-  </si>
-  <si>
-    <t>Sepals</t>
-  </si>
-  <si>
-    <t>Siliques</t>
-  </si>
-  <si>
-    <t>Stigma-style</t>
-  </si>
-  <si>
-    <t>Stigma-styles</t>
-  </si>
-  <si>
-    <t>Endocarps</t>
-  </si>
-  <si>
-    <t>Mericarp</t>
-  </si>
-  <si>
-    <t>Spikes male</t>
-  </si>
-  <si>
-    <t>Spikes female</t>
-  </si>
-  <si>
-    <t>Male spikes</t>
-  </si>
-  <si>
-    <t>Female spikes</t>
-  </si>
-  <si>
-    <t>Male spike</t>
-  </si>
-  <si>
-    <t>Female spike</t>
-  </si>
-  <si>
-    <t>Stamen</t>
-  </si>
-  <si>
-    <t>Stamen c.</t>
-  </si>
-  <si>
-    <t>Anther</t>
-  </si>
-  <si>
-    <t>Anther c.</t>
-  </si>
-  <si>
-    <t>Lodicule</t>
-  </si>
-  <si>
-    <t>Lodicule c.</t>
-  </si>
-  <si>
-    <t>Corollas</t>
-  </si>
-  <si>
-    <t>Corollas c.</t>
-  </si>
-  <si>
-    <t>Lobe</t>
-  </si>
-  <si>
-    <t>Stygmas</t>
-  </si>
-  <si>
-    <t>Lemmas</t>
-  </si>
-  <si>
-    <t>Lemmas c.</t>
-  </si>
-  <si>
-    <t>Paleas</t>
-  </si>
-  <si>
-    <t>Paleas c.</t>
-  </si>
-  <si>
-    <t>Mesocarp</t>
-  </si>
-  <si>
-    <t>Mesocarps</t>
-  </si>
-  <si>
-    <t>Pyrene</t>
-  </si>
-  <si>
-    <t>Pyrenes</t>
-  </si>
-  <si>
-    <t>Cypselae</t>
-  </si>
-  <si>
-    <t>Cypselas</t>
-  </si>
-  <si>
-    <t>Drupes</t>
-  </si>
-  <si>
-    <t>Capsules</t>
-  </si>
-  <si>
-    <t>Berries</t>
-  </si>
-  <si>
-    <t>Pappi</t>
-  </si>
-  <si>
-    <t>Nuts</t>
-  </si>
-  <si>
-    <t>Schizocarps</t>
-  </si>
-  <si>
-    <t>Achenes</t>
-  </si>
-  <si>
-    <t>Follicles</t>
-  </si>
-  <si>
     <t>The strings contains "hair" or "hairs"</t>
   </si>
   <si>
     <t>Ignore measurements</t>
   </si>
   <si>
-    <t>Nutlet</t>
-  </si>
-  <si>
-    <t>Nutlets</t>
-  </si>
-  <si>
     <t>The string contains "corolla"</t>
   </si>
   <si>
+    <t>Include lobes and tubes measurement</t>
+  </si>
+  <si>
     <t>The string does not contain "corolla"</t>
   </si>
   <si>
-    <t>Filament</t>
-  </si>
-  <si>
-    <t>Filaments</t>
-  </si>
-  <si>
-    <t>Pappus size</t>
-  </si>
-  <si>
-    <t>Ovaries</t>
-  </si>
-  <si>
-    <t>Ovaries c.</t>
+    <t>Ignore lobes and tubes measurements</t>
   </si>
   <si>
     <t>If "filaments", "filament", "stamen", "stamens", "anther", "anthers", "stygma", "stygmas", "style", "styles", "ovary", "ovaries" are contained in the string</t>
@@ -1141,52 +1389,37 @@
     <t>Place in stamen size, anther size, stygma size, style size, ovary size respectively, ignoring all other words</t>
   </si>
   <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Stones</t>
-  </si>
-  <si>
-    <t>Ignore lobes and tubes measurements</t>
-  </si>
-  <si>
-    <t>Include lobes and tubes measurement</t>
+    <t>If a key word for seed size and "per fruit" are contained in the string</t>
+  </si>
+  <si>
+    <t>Place the values in seed size</t>
+  </si>
+  <si>
+    <t>If the string contains "height in flower"</t>
+  </si>
+  <si>
+    <t>Place the values in stature</t>
+  </si>
+  <si>
+    <t>If "floret" or "florets" is contained in the string without "disk" or "ray"</t>
+  </si>
+  <si>
+    <t>Place measurement in both disk and ray floret size</t>
+  </si>
+  <si>
+    <t>A measurement can be attributed only to keywords preceding it, not following it</t>
+  </si>
+  <si>
+    <t>##Thoughts</t>
   </si>
   <si>
     <t>Stessa misura per due tratti diversi: verrebbe catalogata come un tratto solo? O giustamente come due tratti diversi con la stessa misura?</t>
   </si>
   <si>
-    <t>Ray florets size</t>
-  </si>
-  <si>
-    <t>Ray florets</t>
-  </si>
-  <si>
-    <t>Ray floret</t>
-  </si>
-  <si>
-    <t>mmlong</t>
-  </si>
-  <si>
-    <t>Perianth lobes</t>
-  </si>
-  <si>
-    <t>Perianth lobe</t>
-  </si>
-  <si>
-    <t>Sepal size</t>
-  </si>
-  <si>
-    <t>Leaflets</t>
-  </si>
-  <si>
-    <t>Leaflet</t>
-  </si>
-  <si>
-    <t>If a key word for seed size and "per fruit" are contained in the string</t>
-  </si>
-  <si>
-    <t>Place the values in seed size</t>
+    <t>What to do when you get "x mm long X y mm wide"? Or "x mm long X c. y mm wide"? Usually results in nulls. Example: Capitula in Pseudognaphalium ephemerum</t>
+  </si>
+  <si>
+    <t>Sparire long</t>
   </si>
   <si>
     <t>Having different keywords in the same sentence is a problem for many species (e.g. Raukaua)</t>
@@ -1195,61 +1428,13 @@
     <t>Could it help to make subsets of keywords and do multiple searches with those keywords? So to not confuse one measurement for the other</t>
   </si>
   <si>
-    <t>Perianth c.</t>
-  </si>
-  <si>
-    <t>Perianths</t>
-  </si>
-  <si>
     <t>Or is it a matter of order? Seed always comes after fruit. You could implement that in the code. Only when they are both present though. Aggiungere regole di sintassi potrebbe essere la soluzione (ordine in cui I tratti compaiono).</t>
   </si>
   <si>
-    <t>Pappus-hairs</t>
-  </si>
-  <si>
-    <t>Pappus-hair</t>
-  </si>
-  <si>
-    <t>Flowerheads</t>
-  </si>
-  <si>
-    <t>Flowerhead</t>
-  </si>
-  <si>
-    <t>If the string contains "height in flower"</t>
-  </si>
-  <si>
-    <t>Place the values in stature</t>
-  </si>
-  <si>
-    <t>Achenes c.</t>
-  </si>
-  <si>
-    <t>Achene c.</t>
-  </si>
-  <si>
-    <t>Disk floret size</t>
-  </si>
-  <si>
-    <t>Disk-florets</t>
-  </si>
-  <si>
-    <t>Disk florets</t>
-  </si>
-  <si>
-    <t>Disk floret</t>
-  </si>
-  <si>
-    <t>Disk-floret</t>
-  </si>
-  <si>
-    <t>Ray-florets</t>
-  </si>
-  <si>
-    <t>Ray-floret</t>
-  </si>
-  <si>
-    <t>Heads</t>
+    <t>The measurement of a keyword must come after the keyword. Example: tube size of Celmisia monroi;  peduncles in Leptinella plumosa; flower and inflorescence in Olearia angulata. This conflicts with rules 6 and 7</t>
+  </si>
+  <si>
+    <t>Togliere ; prima di ogni misura</t>
   </si>
   <si>
     <t>Why is sometimes stature confused with inflorescence? Example: Celmisia rupestris</t>
@@ -1261,66 +1446,15 @@
     <t xml:space="preserve">"Corolla tube" and "corolla lobe" are always placed under corolla size </t>
   </si>
   <si>
-    <t>Pistillate heads</t>
-  </si>
-  <si>
-    <t>Pistillate head</t>
-  </si>
-  <si>
-    <t>Staminate heads</t>
-  </si>
-  <si>
-    <t>Staminate head</t>
-  </si>
-  <si>
-    <t>If "floret" or "florets" is contained in the string without "disk" or "ray"</t>
-  </si>
-  <si>
-    <t>Place measurement in both disk and ray floret size</t>
-  </si>
-  <si>
     <t>Inflorescence is often attributed to the wrong measurements</t>
   </si>
   <si>
-    <t>Trees up to</t>
-  </si>
-  <si>
-    <t>Shrubs up to</t>
-  </si>
-  <si>
-    <t>Herbs up to</t>
-  </si>
-  <si>
-    <t>Trees</t>
-  </si>
-  <si>
-    <t>Shrubs</t>
-  </si>
-  <si>
-    <t>Herbs</t>
-  </si>
-  <si>
     <t>Sometimes keywords are not separated by ";". This leads to nulls. Example: lobes of Olearia crebra and Olearia ilicifolia</t>
   </si>
   <si>
-    <t>Flower heads</t>
-  </si>
-  <si>
-    <t>Flower head</t>
-  </si>
-  <si>
-    <t>What to do when you get "x mm long X y mm wide"? Or "x mm long X c. y mm wide"? Usually results in nulls. Example: Capitula in Pseudognaphalium ephemerum</t>
-  </si>
-  <si>
     <t>Sometimes stature is ignored. Example: Raoulia</t>
   </si>
   <si>
-    <t>tall</t>
-  </si>
-  <si>
-    <t>diameter</t>
-  </si>
-  <si>
     <t>Why is the capitula measurement ignored in Senecio australis?</t>
   </si>
   <si>
@@ -1330,65 +1464,140 @@
     <t>Why are some many things ignored in Sonchus kirkii?</t>
   </si>
   <si>
-    <t>across</t>
-  </si>
-  <si>
-    <t>diam.</t>
-  </si>
-  <si>
-    <t>The measurement of a keyword must come after the keyword. Example: tube size of Celmisia monroi;  peduncles in Leptinella plumosa; flower and inflorescence in Olearia angulata. This conflicts with rules 6 and 7</t>
-  </si>
-  <si>
-    <t>##Thoughts</t>
-  </si>
-  <si>
-    <t>A measurement can be attributed only to keywords preceding it, not following it</t>
-  </si>
-  <si>
-    <t>Ray floret size</t>
-  </si>
-  <si>
-    <t>Pistillate</t>
-  </si>
-  <si>
-    <t>Staminate</t>
-  </si>
-  <si>
-    <t>Tubes</t>
-  </si>
-  <si>
-    <t>Floret</t>
-  </si>
-  <si>
-    <t>Florets</t>
-  </si>
-  <si>
-    <t>Sparire long</t>
-  </si>
-  <si>
-    <t>Togliere ; prima di ogni misura</t>
-  </si>
-  <si>
-    <t>Stygma</t>
-  </si>
-  <si>
-    <t>Culms</t>
-  </si>
-  <si>
-    <t>Tall</t>
-  </si>
-  <si>
-    <t>Sessil</t>
-  </si>
-  <si>
-    <t>Ray</t>
+    <t>Remove culm and culms from inflorescence words. Add utricles</t>
+  </si>
+  <si>
+    <t>In the string "2-4 more or less", the code isolates "2-4 m" and counts it as a measure. Example carex elingamita</t>
+  </si>
+  <si>
+    <t>Sometimes it says null but then it adds it to the values below. Example elingamita johnsonii, olearia-chathamica. Do they count?</t>
+  </si>
+  <si>
+    <t>Height in flower is misplaced in flower. Example gentianella antarctica</t>
+  </si>
+  <si>
+    <t>Tubes and lobes are not always caught. Sometimes misplaced. Lobes are always classified as tube. Example gentianella antarctica, myrsine chathamica, myrsine kermadecensis, veronica-breviracemosa</t>
+  </si>
+  <si>
+    <t>Sometimes stamen and style are still misplaced with flower size. They still lack priority? Example: gentianella antipoda</t>
+  </si>
+  <si>
+    <t>When preceded by a parenthesis, leaf size is still ignored sometimes. Example melicytus-chathamicus</t>
+  </si>
+  <si>
+    <t>Prioritizing seeds over fruit not always works. Example: plantago-aucklandica. "Seeds 1-2 per capsule x long". X is categorized as fruit.</t>
+  </si>
+  <si>
+    <t>Why is corolla a null in veronica-chathamica and veronica-insularis? This happens in various Veronica.</t>
+  </si>
+  <si>
+    <t>Why is flower size ignored in atriplex-billardierei and atriplex-hollowayi?</t>
+  </si>
+  <si>
+    <t>Why are stamen and anthers ignored in atriplex-cinerea?</t>
+  </si>
+  <si>
+    <t>Why is seed size (mericarps) ignored in aciphylla-anomala, colensoi and cartilaginea? This is true for most aciphylla</t>
+  </si>
+  <si>
+    <t>For many aciphylla, all measurements are categorized as stature. Why? Example: aciphylla-divisa, ferox, horrida, indurata. This problem is exclusive to aciphylla</t>
+  </si>
+  <si>
+    <t>Other aciphyllas have the same problem with inflorescence. Again, a problem exclusive to aciphylla</t>
+  </si>
+  <si>
+    <t>When the measurement is x mm X y mm (without long and wide but just with the unit of measurement) it always results in null.</t>
+  </si>
+  <si>
+    <t>Some measurement are still wrongly associated with a following keyword. Example gingidia-flabellata, gingidia-montana</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Ok, trovato il problema (?)</t>
+  </si>
+  <si>
+    <t>Non viene individuata come trovata dal sistema grafico ma sotto c'è, confermi? Purtroppo questo è un altro glitch del sistema</t>
+  </si>
+  <si>
+    <t>Modo pigro mio per mostrarti le cose, l'importante è che non venga preso come misura in qualche feature, se te la mostra solo come "Null" va bene</t>
+  </si>
+  <si>
+    <t>Anche qui, vuol dire che l'ha trovato ma nel passaggio successivo non lo riconosce è solo un problema di "visualizzazione". Fa fede l'elenco in fondo a ogni testo</t>
+  </si>
+  <si>
+    <t>Dovrebbe essere Stature? Pare manchi "Height" come keyword, aggiungendo quella si dovrebbe risolvere.</t>
+  </si>
+  <si>
+    <t>Risolto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C'è 'calix' all'interno della frase e coza con una regola che associava misure solo a "CalixSize" se contenevano quella parola. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A cosa serviva questa regola? Si può togliere?</t>
+    </r>
+  </si>
+  <si>
+    <t>"Approximately" nelle keywords, tolta perché davvero dannosa. Dovrebbe essere risolto</t>
+  </si>
+  <si>
+    <t>Sempre lo stesso problema?</t>
+  </si>
+  <si>
+    <t>Esempi?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mericarps (excluding </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) 2.5-3.0 mm long, dull light orange-yellow to orange, vittae red-brown -&gt; Becca 'Style' ma forse non dovrebbe. Altri problemi?</t>
+    </r>
+  </si>
+  <si>
+    <t>Manca l'unità di misura qui! Per coma ragiono ora è abbastanza bloccante che esistano casi come questi</t>
+  </si>
+  <si>
+    <t>Idea: rimuovere tutte le parole dopo "Excluding…</t>
+  </si>
+  <si>
+    <t>Trunk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1427,13 +1636,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1452,8 +1709,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1461,11 +1750,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1492,20 +1800,37 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1792,6 +2117,23 @@
   <threadedComment ref="D2" dT="2023-11-09T16:53:19.39" personId="{3F739B71-14D4-4447-80E8-60C5A1936E17}" id="{2D23C5D7-737E-44B9-8C65-12C2EDD86C5F}">
     <text>petiolules è una keyword che può andare qui?</text>
   </threadedComment>
+  <threadedComment ref="A11" dT="2023-11-14T16:30:20.99" personId="{3F739B71-14D4-4447-80E8-60C5A1936E17}" id="{EEFFEBC7-C7DF-4808-BF61-6D48CB0DEF1A}">
+    <text>Va bene?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A41" dT="2023-11-14T08:38:33.40" personId="{3F739B71-14D4-4447-80E8-60C5A1936E17}" id="{979F3229-ADD2-4D84-9477-0AC6DCB6C481}">
+    <text>Modo pigro mio per mostrarti le cose, l'importante è che non venga preso come misura in qualche feature, se te la mostra solo come "Null" va bene</text>
+  </threadedComment>
+  <threadedComment ref="A42" dT="2023-11-14T08:40:07.29" personId="{3F739B71-14D4-4447-80E8-60C5A1936E17}" id="{414063AF-5C60-442F-84C4-5A13DCE5A611}">
+    <text>Anche qui, vuol dire che l'ha trovato ma nel passaggio successivo non lo riconosce è solo un problema di "visualizzazione". Fa fede l'elenco in fondo a ogni testo</text>
+  </threadedComment>
+  <threadedComment ref="A43" dT="2023-11-14T08:41:15.96" personId="{3F739B71-14D4-4447-80E8-60C5A1936E17}" id="{F5733F7B-D2E1-4945-97E9-C1690D7903B1}">
+    <text>Dovrebbe essere Stature? Pare manchi "Height" come keyword, aggiungendo quella si dovrebbe risolvere.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1822,161 +2164,161 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>20</v>
+      <c r="A5" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
-    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" t="s">
-        <v>432</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" t="s">
-        <v>393</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" t="s">
-        <v>375</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>359</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2021,58 +2363,58 @@
     <col min="24" max="24" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.109375" style="3" customWidth="1"/>
     <col min="26" max="26" width="14.109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -2081,893 +2423,613 @@
         <v>12</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="F6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="T4" s="15" t="s">
+      <c r="X6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="F9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>110</v>
+      <c r="C12" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>111</v>
+      <c r="E12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>112</v>
+      <c r="E13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="F14" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>113</v>
+      <c r="F14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>312</v>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15" t="s">
-        <v>434</v>
+      <c r="F16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>337</v>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
+      <c r="V17" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
-        <v>338</v>
+      <c r="C18" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
+      <c r="V18" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
-        <v>343</v>
+      <c r="C19" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="V19" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
-        <v>344</v>
+      <c r="C20" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
-        <v>345</v>
+      <c r="C21" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
-        <v>354</v>
+      <c r="C22" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
-        <v>341</v>
+      <c r="C23" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
-        <v>342</v>
+      <c r="C24" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15" t="s">
-        <v>347</v>
+      <c r="C25" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
-        <v>348</v>
+      <c r="C26" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2975,9 +3037,8 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
-        <v>349</v>
+      <c r="C27" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2985,9 +3046,8 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
-        <v>350</v>
+      <c r="C28" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2995,99 +3055,89 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+        <v>173</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="I35" s="2"/>
       <c r="K35" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -3096,7 +3146,7 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3108,405 +3158,405 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="O37" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>369</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>422</v>
+      <c r="A38" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>428</v>
+        <v>187</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>372</v>
+        <v>188</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>372</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>423</v>
+        <v>190</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="V43" s="3" t="s">
-        <v>423</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>427</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3521,7 +3571,7 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3552,52 +3602,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="A1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -3606,684 +3656,684 @@
         <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>369</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>375</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>393</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="U3" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>370</v>
+        <v>195</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>310</v>
+        <v>56</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>394</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="W4" s="5" t="s">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>371</v>
+        <v>212</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>395</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>298</v>
+        <v>86</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>330</v>
+        <v>224</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>360</v>
+        <v>67</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>313</v>
+        <v>87</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>313</v>
+        <v>87</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>323</v>
+        <v>70</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>336</v>
+        <v>230</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>399</v>
+        <v>92</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>397</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="N7" s="5" t="s">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>357</v>
+        <v>88</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>353</v>
+        <v>108</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>374</v>
+        <v>243</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>316</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>339</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>340</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>341</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>415</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>382</v>
+        <v>251</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>342</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>411</v>
+        <v>252</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>383</v>
+        <v>132</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>364</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>412</v>
+        <v>254</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
-        <v>376</v>
+        <v>139</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>387</v>
+        <v>136</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>365</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>413</v>
+        <v>255</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="5" t="s">
-        <v>377</v>
+        <v>144</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>388</v>
+        <v>141</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>312</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>337</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>416</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="9" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>338</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -4291,13 +4341,13 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="9" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>405</v>
+        <v>260</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>343</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -4305,13 +4355,13 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>404</v>
+        <v>262</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>344</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -4319,13 +4369,13 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>406</v>
+        <v>264</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>345</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -4333,13 +4383,13 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>407</v>
+        <v>266</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>354</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -4347,13 +4397,13 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>418</v>
+        <v>268</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>341</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -4361,13 +4411,13 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>419</v>
+        <v>270</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>342</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -4375,10 +4425,10 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>347</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -4386,10 +4436,10 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>348</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -4397,10 +4447,10 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>349</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -4409,7 +4459,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="U29" s="5" t="s">
-        <v>350</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -4418,7 +4468,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="U30" s="5" t="s">
-        <v>392</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -4427,7 +4477,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="U31" s="5" t="s">
-        <v>391</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -4455,49 +4505,49 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
+      <c r="A36" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>10</v>
@@ -4509,371 +4559,371 @@
         <v>12</v>
       </c>
       <c r="J37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="O37" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>369</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>372</v>
+        <v>188</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>372</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>422</v>
+        <v>183</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>428</v>
+        <v>187</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
@@ -4881,52 +4931,52 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>423</v>
+        <v>190</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D44" s="3" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>423</v>
+        <v>190</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D45" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>427</v>
+        <v>193</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V46" s="3" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4957,693 +5007,693 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" t="s">
-        <v>208</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" t="s">
-        <v>209</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
-        <v>214</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" t="s">
-        <v>227</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" t="s">
-        <v>236</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" t="s">
-        <v>239</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>388</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>389</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>390</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>393</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
-        <v>253</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
-        <v>254</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -5656,11 +5706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DA1169-2C93-47A0-96CD-8055F1566B0F}">
-  <dimension ref="A1:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DA1169-2C93-47A0-96CD-8055F1566B0F}">
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A37" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5671,182 +5721,182 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>267</v>
+        <v>396</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>416</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>352</v>
+      <c r="A14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>367</v>
+      <c r="A15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>366</v>
+      <c r="A16" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>363</v>
+      <c r="A17" t="s">
+        <v>426</v>
+      </c>
+      <c r="B17" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>379</v>
+      <c r="A18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>390</v>
+      <c r="A19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>409</v>
+      <c r="A20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B20" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>431</v>
+      <c r="A21" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>368</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s">
         <v>438</v>
@@ -5854,77 +5904,208 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B29" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="B31" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>426</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>454</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>455</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>456</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>457</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="24" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Words before and after traits_v2.xlsx
+++ b/Words before and after traits_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/simone_monaco_polito_it/Documents/Documenti/PoliTO/NewZeland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{B96F9A42-91C1-41E8-9842-B794338A7FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCE563CF-4414-47BA-AA25-9F1E30788244}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{B96F9A42-91C1-41E8-9842-B794338A7FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3F1EA8E-FA3F-48CC-9CC5-3E19E62EEB6A}"/>
   <bookViews>
-    <workbookView xWindow="-28935" yWindow="-11880" windowWidth="29070" windowHeight="16470" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={2D23C5D7-737E-44B9-8C65-12C2EDD86C5F}</author>
-    <author>tc={EEFFEBC7-C7DF-4808-BF61-6D48CB0DEF1A}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{2D23C5D7-737E-44B9-8C65-12C2EDD86C5F}">
@@ -52,14 +51,6 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     petiolules è una keyword che può andare qui?</t>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{EEFFEBC7-C7DF-4808-BF61-6D48CB0DEF1A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Va bene?</t>
       </text>
     </comment>
   </commentList>
@@ -103,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="495">
   <si>
     <t>Stature</t>
   </si>
@@ -213,633 +204,654 @@
     <t>Utricle size</t>
   </si>
   <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Endocarp</t>
+  </si>
+  <si>
+    <t>Drupe</t>
+  </si>
+  <si>
+    <t>Petioles</t>
+  </si>
+  <si>
+    <t>Lamina</t>
+  </si>
+  <si>
+    <t>Racemes</t>
+  </si>
+  <si>
+    <t>Pedicels</t>
+  </si>
+  <si>
+    <t>Calyx</t>
+  </si>
+  <si>
+    <t>Corolla</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobes </t>
+  </si>
+  <si>
+    <t>Ovary</t>
+  </si>
+  <si>
+    <t>Stigma</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Stamens</t>
+  </si>
+  <si>
+    <t>Anthers</t>
+  </si>
+  <si>
+    <t>Petal</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Pappus</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Sepal</t>
+  </si>
+  <si>
+    <t>Disk-florets</t>
+  </si>
+  <si>
+    <t>Utricles</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Mericarps</t>
+  </si>
+  <si>
+    <t>Inflorescences</t>
+  </si>
+  <si>
+    <t>Pedicel</t>
+  </si>
+  <si>
+    <t>Calyx tube</t>
+  </si>
+  <si>
+    <t>Corollas</t>
+  </si>
+  <si>
+    <t>Tubes</t>
+  </si>
+  <si>
+    <t>Lobe</t>
+  </si>
+  <si>
+    <t>Ovaries</t>
+  </si>
+  <si>
+    <t>Sessil</t>
+  </si>
+  <si>
+    <t>Styles</t>
+  </si>
+  <si>
+    <t>Stamen</t>
+  </si>
+  <si>
+    <t>Anther</t>
+  </si>
+  <si>
+    <t>Lemmas</t>
+  </si>
+  <si>
+    <t>Paleas</t>
+  </si>
+  <si>
+    <t>Lodicule</t>
+  </si>
+  <si>
+    <t>Glume</t>
+  </si>
+  <si>
+    <t>Petals</t>
+  </si>
+  <si>
+    <t>Pappi</t>
+  </si>
+  <si>
+    <t>Ray-florets</t>
+  </si>
+  <si>
+    <t>Sepals</t>
+  </si>
+  <si>
+    <t>Disk florets</t>
+  </si>
+  <si>
+    <t>Utricle</t>
+  </si>
+  <si>
+    <t>Shrub</t>
+  </si>
+  <si>
+    <t>Seeds</t>
+  </si>
+  <si>
+    <t>Capsule</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>Calyx tubes</t>
+  </si>
+  <si>
+    <t>Stigma-style</t>
+  </si>
+  <si>
+    <t>Filament</t>
+  </si>
+  <si>
+    <t>Tepals</t>
+  </si>
+  <si>
+    <t>Capitula</t>
+  </si>
+  <si>
+    <t>Pappus-hairs</t>
+  </si>
+  <si>
+    <t>Ray-floret</t>
+  </si>
+  <si>
+    <t>Disk floret</t>
+  </si>
+  <si>
+    <t>Shrubs</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>Juveniles</t>
+  </si>
+  <si>
+    <t>Umbels</t>
+  </si>
+  <si>
+    <t>Calyx lobes</t>
+  </si>
+  <si>
+    <t>Stigma-styles</t>
+  </si>
+  <si>
+    <t>Filaments</t>
+  </si>
+  <si>
+    <t>Tepal</t>
+  </si>
+  <si>
+    <t>Capitulum</t>
+  </si>
+  <si>
+    <t>Pappus-hair</t>
+  </si>
+  <si>
+    <t>Floret</t>
+  </si>
+  <si>
+    <t>Disk-floret</t>
+  </si>
+  <si>
+    <t>Herb</t>
+  </si>
+  <si>
+    <t>Cypsela</t>
+  </si>
+  <si>
+    <t>Nutlet</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>Panicle</t>
+  </si>
+  <si>
+    <t>Stygma</t>
+  </si>
+  <si>
+    <t>Cones</t>
+  </si>
+  <si>
+    <t>Florets</t>
+  </si>
+  <si>
+    <t>Herbs</t>
+  </si>
+  <si>
+    <t>Endocarps</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Panicles</t>
+  </si>
+  <si>
+    <t>Stygmas</t>
+  </si>
+  <si>
+    <t>Cone</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>Mericarp</t>
+  </si>
+  <si>
+    <t>Achene</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>Perianth</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Pyrene</t>
+  </si>
+  <si>
+    <t>Caryopsis</t>
+  </si>
+  <si>
+    <t>Leaf-blade</t>
+  </si>
+  <si>
+    <t>Spikes</t>
+  </si>
+  <si>
+    <t>Perianths</t>
+  </si>
+  <si>
+    <t>Pyrenes</t>
+  </si>
+  <si>
+    <t>Fronds</t>
+  </si>
+  <si>
+    <t>Corymb</t>
+  </si>
+  <si>
+    <t>Flowerheads</t>
+  </si>
+  <si>
+    <t>Cypselae</t>
+  </si>
+  <si>
+    <t>Follicle</t>
+  </si>
+  <si>
+    <t>Leaflets</t>
+  </si>
+  <si>
+    <t>Compound corymb</t>
+  </si>
+  <si>
+    <t>Flowerhead</t>
+  </si>
+  <si>
+    <t>Cypselas</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Leaflet</t>
+  </si>
+  <si>
+    <t>Compound umbel</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Schizocarp</t>
+  </si>
+  <si>
+    <t>Umbel</t>
+  </si>
+  <si>
+    <t>Heads</t>
+  </si>
+  <si>
+    <t>Stones</t>
+  </si>
+  <si>
+    <t>Silique</t>
+  </si>
+  <si>
+    <t>Raceme</t>
+  </si>
+  <si>
+    <t>Pistillate</t>
+  </si>
+  <si>
+    <t>Siliques</t>
+  </si>
+  <si>
+    <t>Corymbs</t>
+  </si>
+  <si>
+    <t>Staminate</t>
+  </si>
+  <si>
+    <t>Achenes</t>
+  </si>
+  <si>
+    <t>Mesocarp</t>
+  </si>
+  <si>
+    <t>Cyme</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>Mesocarps</t>
+  </si>
+  <si>
+    <t>Cymes</t>
+  </si>
+  <si>
+    <t>Disks</t>
+  </si>
+  <si>
+    <t>Drupes</t>
+  </si>
+  <si>
+    <t>Perianthe</t>
+  </si>
+  <si>
+    <t>Capsules</t>
+  </si>
+  <si>
+    <t>Disc</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>Discs</t>
+  </si>
+  <si>
+    <t>Nutlets</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Schizocarps</t>
+  </si>
+  <si>
+    <t>Follicles</t>
+  </si>
+  <si>
+    <t>Pod</t>
+  </si>
+  <si>
+    <t>Pods</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Following words</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>m tall</t>
+  </si>
+  <si>
+    <t>mm.</t>
+  </si>
+  <si>
+    <t>mm long</t>
+  </si>
+  <si>
+    <t>cm tall</t>
+  </si>
+  <si>
+    <t>mm long.</t>
+  </si>
+  <si>
+    <t>mm tall</t>
+  </si>
+  <si>
+    <t>mm diam.</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>mm diam</t>
+  </si>
+  <si>
+    <t>cm long</t>
+  </si>
+  <si>
+    <t>mm diameter</t>
+  </si>
+  <si>
+    <t>diam.</t>
+  </si>
+  <si>
+    <t>mmlong</t>
+  </si>
+  <si>
+    <t>mm diamter</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>cm diameter</t>
+  </si>
+  <si>
+    <t>cm diam.</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>Up to</t>
+  </si>
+  <si>
+    <t>Ray florets</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Leaf lamina</t>
+  </si>
+  <si>
+    <t>Flowers c.</t>
+  </si>
+  <si>
+    <t>Pedicels c.</t>
+  </si>
+  <si>
+    <t>Calyx c.</t>
+  </si>
+  <si>
+    <t>Corolla c.</t>
+  </si>
+  <si>
+    <t>Tube c.</t>
+  </si>
+  <si>
+    <t>Lobes c.</t>
+  </si>
+  <si>
+    <t>Ovary c.</t>
+  </si>
+  <si>
+    <t>Stigma sessil</t>
+  </si>
+  <si>
+    <t>Stamens c.</t>
+  </si>
+  <si>
+    <t>Anthers c.</t>
+  </si>
+  <si>
+    <t>Lemma c.</t>
+  </si>
+  <si>
+    <t>Palea c.</t>
+  </si>
+  <si>
+    <t>Lodicules c.</t>
+  </si>
+  <si>
+    <t>Glumes c.</t>
+  </si>
+  <si>
+    <t>Ray floret</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>Petioles c.</t>
+  </si>
+  <si>
+    <t>Juvenile leaves</t>
+  </si>
+  <si>
+    <t>Floral tube</t>
+  </si>
+  <si>
+    <t>Corolla lobes</t>
+  </si>
+  <si>
+    <t>Stigma c.</t>
+  </si>
+  <si>
+    <t>Style c.</t>
+  </si>
+  <si>
+    <t>Stamen c.</t>
+  </si>
+  <si>
+    <t>Lodicule c.</t>
+  </si>
+  <si>
     <t>Approximately</t>
   </si>
   <si>
-    <t>Endocarp</t>
-  </si>
-  <si>
-    <t>Drupe</t>
-  </si>
-  <si>
-    <t>Petioles</t>
-  </si>
-  <si>
-    <t>Lamina</t>
-  </si>
-  <si>
-    <t>Racemes</t>
-  </si>
-  <si>
-    <t>Pedicels</t>
-  </si>
-  <si>
-    <t>Calyx</t>
-  </si>
-  <si>
-    <t>Corolla</t>
-  </si>
-  <si>
-    <t>Tube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobes </t>
-  </si>
-  <si>
-    <t>Ovary</t>
-  </si>
-  <si>
-    <t>Stigma</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Stamens</t>
-  </si>
-  <si>
-    <t>Anthers</t>
-  </si>
-  <si>
-    <t>Petal</t>
-  </si>
-  <si>
-    <t>Flowers</t>
-  </si>
-  <si>
-    <t>Pappus</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
-    <t>Sepal</t>
-  </si>
-  <si>
-    <t>Disk-florets</t>
-  </si>
-  <si>
-    <t>Utricles</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>Mericarps</t>
-  </si>
-  <si>
-    <t>Inflorescences</t>
-  </si>
-  <si>
-    <t>Pedicel</t>
-  </si>
-  <si>
-    <t>Calyx tube</t>
-  </si>
-  <si>
-    <t>Corollas</t>
-  </si>
-  <si>
-    <t>Tubes</t>
-  </si>
-  <si>
-    <t>Lobe</t>
-  </si>
-  <si>
-    <t>Ovaries</t>
-  </si>
-  <si>
-    <t>Sessil</t>
-  </si>
-  <si>
-    <t>Styles</t>
-  </si>
-  <si>
-    <t>Stamen</t>
-  </si>
-  <si>
-    <t>Anther</t>
-  </si>
-  <si>
-    <t>Lemmas</t>
-  </si>
-  <si>
-    <t>Paleas</t>
-  </si>
-  <si>
-    <t>Lodicule</t>
-  </si>
-  <si>
-    <t>Glume</t>
-  </si>
-  <si>
-    <t>Petals</t>
-  </si>
-  <si>
-    <t>Pappi</t>
-  </si>
-  <si>
-    <t>Ray-florets</t>
-  </si>
-  <si>
-    <t>Sepals</t>
-  </si>
-  <si>
-    <t>Disk florets</t>
-  </si>
-  <si>
-    <t>Utricle</t>
-  </si>
-  <si>
-    <t>Trees</t>
-  </si>
-  <si>
-    <t>Seeds</t>
-  </si>
-  <si>
-    <t>Capsule</t>
-  </si>
-  <si>
-    <t>Leaves</t>
-  </si>
-  <si>
-    <t>Calyx tubes</t>
-  </si>
-  <si>
-    <t>Stigma-style</t>
-  </si>
-  <si>
-    <t>Filament</t>
-  </si>
-  <si>
-    <t>Tepals</t>
-  </si>
-  <si>
-    <t>Capitula</t>
-  </si>
-  <si>
-    <t>Pappus-hairs</t>
-  </si>
-  <si>
-    <t>Ray-floret</t>
-  </si>
-  <si>
-    <t>Disk floret</t>
-  </si>
-  <si>
-    <t>Shrub</t>
-  </si>
-  <si>
-    <t>Berry</t>
-  </si>
-  <si>
-    <t>Juveniles</t>
-  </si>
-  <si>
-    <t>Umbels</t>
-  </si>
-  <si>
-    <t>Calyx lobes</t>
-  </si>
-  <si>
-    <t>Stigma-styles</t>
-  </si>
-  <si>
-    <t>Filaments</t>
-  </si>
-  <si>
-    <t>Tepal</t>
-  </si>
-  <si>
-    <t>Capitulum</t>
-  </si>
-  <si>
-    <t>Pappus-hair</t>
-  </si>
-  <si>
-    <t>Floret</t>
-  </si>
-  <si>
-    <t>Disk-floret</t>
-  </si>
-  <si>
-    <t>Shrubs</t>
-  </si>
-  <si>
-    <t>Cypsela</t>
-  </si>
-  <si>
-    <t>Nutlet</t>
-  </si>
-  <si>
-    <t>Juvenile</t>
-  </si>
-  <si>
-    <t>Panicle</t>
-  </si>
-  <si>
-    <t>Stygma</t>
-  </si>
-  <si>
-    <t>Cones</t>
-  </si>
-  <si>
-    <t>Florets</t>
-  </si>
-  <si>
-    <t>Herb</t>
-  </si>
-  <si>
-    <t>Endocarps</t>
-  </si>
-  <si>
-    <t>Fruits</t>
-  </si>
-  <si>
-    <t>Adult</t>
-  </si>
-  <si>
-    <t>Panicles</t>
-  </si>
-  <si>
-    <t>Stygmas</t>
-  </si>
-  <si>
-    <t>Cone</t>
-  </si>
-  <si>
-    <t>Herbs</t>
-  </si>
-  <si>
-    <t>Mericarp</t>
-  </si>
-  <si>
-    <t>Achene</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Spike</t>
-  </si>
-  <si>
-    <t>Perianth</t>
-  </si>
-  <si>
-    <t>Tall</t>
-  </si>
-  <si>
-    <t>Pyrene</t>
-  </si>
-  <si>
-    <t>Caryopsis</t>
-  </si>
-  <si>
-    <t>Leaf-blade</t>
-  </si>
-  <si>
-    <t>Spikes</t>
-  </si>
-  <si>
-    <t>Perianths</t>
-  </si>
-  <si>
-    <t>Pyrenes</t>
-  </si>
-  <si>
-    <t>Fronds</t>
-  </si>
-  <si>
-    <t>Corymb</t>
-  </si>
-  <si>
-    <t>Flowerheads</t>
-  </si>
-  <si>
-    <t>Cypselae</t>
-  </si>
-  <si>
-    <t>Follicle</t>
-  </si>
-  <si>
-    <t>Leaflets</t>
-  </si>
-  <si>
-    <t>Compound corymb</t>
-  </si>
-  <si>
-    <t>Flowerhead</t>
-  </si>
-  <si>
-    <t>Cypselas</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Leaflet</t>
-  </si>
-  <si>
-    <t>Compound umbel</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Schizocarp</t>
+    <t>Petioles up to</t>
+  </si>
+  <si>
+    <t>Adult leaves</t>
+  </si>
+  <si>
+    <t>Corollas c.</t>
+  </si>
+  <si>
+    <t>Corolla tube</t>
+  </si>
+  <si>
+    <t>Corolla lobe</t>
+  </si>
+  <si>
+    <t>Petals c.</t>
+  </si>
+  <si>
+    <t>Anther c.</t>
+  </si>
+  <si>
+    <t>Lemmas c.</t>
+  </si>
+  <si>
+    <t>Paleas c.</t>
+  </si>
+  <si>
+    <t>Glume c.</t>
+  </si>
+  <si>
+    <t>Petiole up to</t>
+  </si>
+  <si>
+    <t>Rays</t>
+  </si>
+  <si>
+    <t>Male cones</t>
+  </si>
+  <si>
+    <t>Corolla tubes</t>
+  </si>
+  <si>
+    <t>Ovaries c.</t>
+  </si>
+  <si>
+    <t>Seeds c.</t>
+  </si>
+  <si>
+    <t>Female cones</t>
+  </si>
+  <si>
+    <t>Tube of</t>
+  </si>
+  <si>
+    <t>Perianth lobes</t>
+  </si>
+  <si>
+    <t>up to</t>
+  </si>
+  <si>
+    <t>tube of female flowers</t>
+  </si>
+  <si>
+    <t>Perianth lobe</t>
+  </si>
+  <si>
+    <t>Tree up to</t>
   </si>
   <si>
     <t>Culm</t>
   </si>
   <si>
-    <t>Heads</t>
-  </si>
-  <si>
-    <t>Stones</t>
-  </si>
-  <si>
-    <t>Silique</t>
-  </si>
-  <si>
-    <t>Pistillate</t>
-  </si>
-  <si>
-    <t>Siliques</t>
-  </si>
-  <si>
-    <t>Umbel</t>
-  </si>
-  <si>
-    <t>Staminate</t>
-  </si>
-  <si>
-    <t>Achenes</t>
-  </si>
-  <si>
-    <t>Mesocarp</t>
-  </si>
-  <si>
-    <t>Raceme</t>
-  </si>
-  <si>
-    <t>Disk</t>
-  </si>
-  <si>
-    <t>Mesocarps</t>
-  </si>
-  <si>
-    <t>Corymbs</t>
-  </si>
-  <si>
-    <t>Disks</t>
-  </si>
-  <si>
-    <t>Drupes</t>
-  </si>
-  <si>
-    <t>Perianthe</t>
-  </si>
-  <si>
-    <t>Capsules</t>
-  </si>
-  <si>
-    <t>Berries</t>
-  </si>
-  <si>
-    <t>Nutlets</t>
-  </si>
-  <si>
-    <t>Nuts</t>
-  </si>
-  <si>
-    <t>Schizocarps</t>
-  </si>
-  <si>
-    <t>Follicles</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Following words</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>m tall</t>
-  </si>
-  <si>
-    <t>mm.</t>
-  </si>
-  <si>
-    <t>mm long</t>
-  </si>
-  <si>
-    <t>cm tall</t>
-  </si>
-  <si>
-    <t>mm long.</t>
-  </si>
-  <si>
-    <t>mm tall</t>
-  </si>
-  <si>
-    <t>mm diam.</t>
-  </si>
-  <si>
-    <t>tall</t>
-  </si>
-  <si>
-    <t>mm diam</t>
-  </si>
-  <si>
-    <t>cm long</t>
-  </si>
-  <si>
-    <t>mm diameter</t>
-  </si>
-  <si>
-    <t>diam.</t>
-  </si>
-  <si>
-    <t>mmlong</t>
-  </si>
-  <si>
-    <t>mm diamter</t>
-  </si>
-  <si>
-    <t>diameter</t>
-  </si>
-  <si>
-    <t>cm diameter</t>
-  </si>
-  <si>
-    <t>cm diam.</t>
-  </si>
-  <si>
-    <t>across</t>
-  </si>
-  <si>
-    <t>Up to</t>
-  </si>
-  <si>
-    <t>Ray florets</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Leaf lamina</t>
-  </si>
-  <si>
-    <t>Flowers c.</t>
-  </si>
-  <si>
-    <t>Pedicels c.</t>
-  </si>
-  <si>
-    <t>Calyx c.</t>
-  </si>
-  <si>
-    <t>Corolla c.</t>
-  </si>
-  <si>
-    <t>Tube c.</t>
-  </si>
-  <si>
-    <t>Lobes c.</t>
-  </si>
-  <si>
-    <t>Ovary c.</t>
-  </si>
-  <si>
-    <t>Stigma sessil</t>
-  </si>
-  <si>
-    <t>Stamens c.</t>
-  </si>
-  <si>
-    <t>Anthers c.</t>
-  </si>
-  <si>
-    <t>Lemma c.</t>
-  </si>
-  <si>
-    <t>Palea c.</t>
-  </si>
-  <si>
-    <t>Lodicules c.</t>
-  </si>
-  <si>
-    <t>Glumes c.</t>
-  </si>
-  <si>
-    <t>Ray floret</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>Petioles c.</t>
-  </si>
-  <si>
-    <t>Juvenile leaves</t>
-  </si>
-  <si>
-    <t>Floral tube</t>
-  </si>
-  <si>
-    <t>Corolla lobes</t>
-  </si>
-  <si>
-    <t>Stigma c.</t>
-  </si>
-  <si>
-    <t>Style c.</t>
-  </si>
-  <si>
-    <t>Stamen c.</t>
-  </si>
-  <si>
-    <t>Lodicule c.</t>
-  </si>
-  <si>
-    <t>Petioles up to</t>
-  </si>
-  <si>
-    <t>Adult leaves</t>
-  </si>
-  <si>
-    <t>Corollas c.</t>
-  </si>
-  <si>
-    <t>Corolla tube</t>
-  </si>
-  <si>
-    <t>Corolla lobe</t>
-  </si>
-  <si>
-    <t>Petals c.</t>
-  </si>
-  <si>
-    <t>Anther c.</t>
-  </si>
-  <si>
-    <t>Lemmas c.</t>
-  </si>
-  <si>
-    <t>Paleas c.</t>
-  </si>
-  <si>
-    <t>Glume c.</t>
-  </si>
-  <si>
-    <t>Petiole up to</t>
-  </si>
-  <si>
-    <t>Rays</t>
-  </si>
-  <si>
-    <t>Male cones</t>
-  </si>
-  <si>
-    <t>Corolla tubes</t>
-  </si>
-  <si>
-    <t>Ovaries c.</t>
-  </si>
-  <si>
-    <t>Seeds c.</t>
-  </si>
-  <si>
-    <t>Female cones</t>
-  </si>
-  <si>
-    <t>Tube of</t>
-  </si>
-  <si>
-    <t>Perianth lobes</t>
-  </si>
-  <si>
-    <t>up to</t>
-  </si>
-  <si>
-    <t>tube of female flowers</t>
-  </si>
-  <si>
-    <t>Perianth lobe</t>
-  </si>
-  <si>
-    <t>Tree up to</t>
-  </si>
-  <si>
     <t>tube of hermaphrodite flowers</t>
   </si>
   <si>
@@ -1470,67 +1482,49 @@
     <t>In the string "2-4 more or less", the code isolates "2-4 m" and counts it as a measure. Example carex elingamita</t>
   </si>
   <si>
+    <t>Modo pigro mio per mostrarti le cose, l'importante è che non venga preso come misura in qualche feature, se te la mostra solo come "Null" va bene</t>
+  </si>
+  <si>
     <t>Sometimes it says null but then it adds it to the values below. Example elingamita johnsonii, olearia-chathamica. Do they count?</t>
   </si>
   <si>
+    <t>Anche qui, vuol dire che l'ha trovato ma nel passaggio successivo non lo riconosce è solo un problema di "visualizzazione". Fa fede l'elenco in fondo a ogni testo</t>
+  </si>
+  <si>
+    <t>ok, got it</t>
+  </si>
+  <si>
     <t>Height in flower is misplaced in flower. Example gentianella antarctica</t>
   </si>
   <si>
+    <t>Dovrebbe essere Stature? Pare manchi "Height" come keyword, aggiungendo quella si dovrebbe risolvere.</t>
+  </si>
+  <si>
     <t>Tubes and lobes are not always caught. Sometimes misplaced. Lobes are always classified as tube. Example gentianella antarctica, myrsine chathamica, myrsine kermadecensis, veronica-breviracemosa</t>
   </si>
   <si>
+    <t>Ok, trovato il problema (?)</t>
+  </si>
+  <si>
     <t>Sometimes stamen and style are still misplaced with flower size. They still lack priority? Example: gentianella antipoda</t>
   </si>
   <si>
+    <t>Risolto</t>
+  </si>
+  <si>
     <t>When preceded by a parenthesis, leaf size is still ignored sometimes. Example melicytus-chathamicus</t>
   </si>
   <si>
+    <t>Non viene individuata come trovata dal sistema grafico ma sotto c'è, confermi? Purtroppo questo è un altro glitch del sistema</t>
+  </si>
+  <si>
+    <t>si, confermo</t>
+  </si>
+  <si>
     <t>Prioritizing seeds over fruit not always works. Example: plantago-aucklandica. "Seeds 1-2 per capsule x long". X is categorized as fruit.</t>
   </si>
   <si>
     <t>Why is corolla a null in veronica-chathamica and veronica-insularis? This happens in various Veronica.</t>
-  </si>
-  <si>
-    <t>Why is flower size ignored in atriplex-billardierei and atriplex-hollowayi?</t>
-  </si>
-  <si>
-    <t>Why are stamen and anthers ignored in atriplex-cinerea?</t>
-  </si>
-  <si>
-    <t>Why is seed size (mericarps) ignored in aciphylla-anomala, colensoi and cartilaginea? This is true for most aciphylla</t>
-  </si>
-  <si>
-    <t>For many aciphylla, all measurements are categorized as stature. Why? Example: aciphylla-divisa, ferox, horrida, indurata. This problem is exclusive to aciphylla</t>
-  </si>
-  <si>
-    <t>Other aciphyllas have the same problem with inflorescence. Again, a problem exclusive to aciphylla</t>
-  </si>
-  <si>
-    <t>When the measurement is x mm X y mm (without long and wide but just with the unit of measurement) it always results in null.</t>
-  </si>
-  <si>
-    <t>Some measurement are still wrongly associated with a following keyword. Example gingidia-flabellata, gingidia-montana</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Ok, trovato il problema (?)</t>
-  </si>
-  <si>
-    <t>Non viene individuata come trovata dal sistema grafico ma sotto c'è, confermi? Purtroppo questo è un altro glitch del sistema</t>
-  </si>
-  <si>
-    <t>Modo pigro mio per mostrarti le cose, l'importante è che non venga preso come misura in qualche feature, se te la mostra solo come "Null" va bene</t>
-  </si>
-  <si>
-    <t>Anche qui, vuol dire che l'ha trovato ma nel passaggio successivo non lo riconosce è solo un problema di "visualizzazione". Fa fede l'elenco in fondo a ogni testo</t>
-  </si>
-  <si>
-    <t>Dovrebbe essere Stature? Pare manchi "Height" come keyword, aggiungendo quella si dovrebbe risolvere.</t>
-  </si>
-  <si>
-    <t>Risolto</t>
   </si>
   <si>
     <r>
@@ -1549,13 +1543,49 @@
     </r>
   </si>
   <si>
+    <t>Ah ok. If we remove that rule, many calix measurements will be associated with flower size. Better to keep it.</t>
+  </si>
+  <si>
+    <t>Why is flower size ignored in atriplex-billardierei and atriplex-hollowayi?</t>
+  </si>
+  <si>
+    <t>Why are stamen and anthers ignored in atriplex-cinerea?</t>
+  </si>
+  <si>
+    <t>Why is seed size (mericarps) ignored in aciphylla-anomala, colensoi and cartilaginea? This is true for most aciphylla</t>
+  </si>
+  <si>
+    <t>Manca l'unità di misura qui! Per coma ragiono ora è abbastanza bloccante che esistano casi come questi</t>
+  </si>
+  <si>
+    <t>No problem. Aciphylla is an exception anyway. I can add those values manually later.</t>
+  </si>
+  <si>
+    <t>For many aciphylla, all measurements are categorized as stature. Why? Example: aciphylla-divisa, ferox, horrida, indurata. This problem is exclusive to aciphylla</t>
+  </si>
+  <si>
     <t>"Approximately" nelle keywords, tolta perché davvero dannosa. Dovrebbe essere risolto</t>
   </si>
   <si>
+    <t>Other aciphyllas have the same problem with inflorescence. Again, a problem exclusive to aciphylla</t>
+  </si>
+  <si>
     <t>Sempre lo stesso problema?</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>When the measurement is x mm X y mm (without long and wide but just with the unit of measurement) it always results in null.</t>
+  </si>
+  <si>
     <t>Esempi?</t>
+  </si>
+  <si>
+    <t>lamina of myosotis-bryonoma. This problem persists</t>
+  </si>
+  <si>
+    <t>Some measurement are still wrongly associated with a following keyword. Example gingidia-flabellata, gingidia-montana</t>
   </si>
   <si>
     <r>
@@ -1584,20 +1614,14 @@
     </r>
   </si>
   <si>
-    <t>Manca l'unità di misura qui! Per coma ragiono ora è abbastanza bloccante che esistano casi come questi</t>
-  </si>
-  <si>
     <t>Idea: rimuovere tutte le parole dopo "Excluding…</t>
-  </si>
-  <si>
-    <t>Trunk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1670,24 +1694,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1773,7 +1785,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1800,14 +1812,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1"/>
@@ -1819,9 +1824,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2117,9 +2128,6 @@
   <threadedComment ref="D2" dT="2023-11-09T16:53:19.39" personId="{3F739B71-14D4-4447-80E8-60C5A1936E17}" id="{2D23C5D7-737E-44B9-8C65-12C2EDD86C5F}">
     <text>petiolules è una keyword che può andare qui?</text>
   </threadedComment>
-  <threadedComment ref="A11" dT="2023-11-14T16:30:20.99" personId="{3F739B71-14D4-4447-80E8-60C5A1936E17}" id="{EEFFEBC7-C7DF-4808-BF61-6D48CB0DEF1A}">
-    <text>Va bene?</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2184,7 +2192,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -2192,109 +2200,109 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="23"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="23"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="23"/>
       <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="23"/>
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="23"/>
       <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="23"/>
       <c r="B15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="23"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="23"/>
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="23"/>
       <c r="B18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="23"/>
       <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="23"/>
       <c r="B20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="23"/>
       <c r="B21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="23"/>
       <c r="B22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="23"/>
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -2334,7 +2342,7 @@
   <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2470,13 +2478,13 @@
       <c r="Z2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>37</v>
@@ -2553,13 +2561,13 @@
       <c r="Z3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>60</v>
@@ -2636,13 +2644,13 @@
       <c r="Z4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AA4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>83</v>
@@ -2687,7 +2695,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
@@ -2732,7 +2740,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>107</v>
@@ -2762,7 +2770,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>115</v>
@@ -2789,7 +2797,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>122</v>
@@ -2809,8 +2817,8 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>469</v>
+      <c r="A10" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>128</v>
@@ -2830,9 +2838,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>483</v>
-      </c>
+      <c r="A11" s="22"/>
       <c r="B11" s="3" t="s">
         <v>133</v>
       </c>
@@ -2897,8 +2903,8 @@
         <v>148</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="F14" s="5" t="s">
-        <v>155</v>
+      <c r="F14" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>150</v>
@@ -2914,11 +2920,11 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="5" t="s">
-        <v>159</v>
+      <c r="F15" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
@@ -2927,73 +2933,85 @@
         <v>123</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="F16" s="5" t="s">
-        <v>162</v>
+      <c r="F16" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="V17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>160</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="V18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>163</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="V19" s="5" t="s">
-        <v>165</v>
+      <c r="V19" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
+      <c r="V20" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
+      <c r="V21" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -3020,7 +3038,7 @@
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3029,7 +3047,7 @@
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -3038,7 +3056,7 @@
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3047,7 +3065,7 @@
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -3055,12 +3073,18 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
+      <c r="C29" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
+      <c r="C30" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
@@ -3072,17 +3096,17 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
@@ -3092,18 +3116,18 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>13</v>
@@ -3112,16 +3136,16 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I35" s="2"/>
       <c r="K35" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>14</v>
@@ -3130,14 +3154,14 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -3146,7 +3170,7 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3158,7 +3182,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>53</v>
@@ -3166,7 +3190,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>31</v>
@@ -3181,7 +3205,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>9</v>
@@ -3190,13 +3214,13 @@
         <v>10</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>15</v>
@@ -3226,10 +3250,10 @@
         <v>26</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>29</v>
@@ -3240,323 +3264,323 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="C38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="G38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="L38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="U38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V38" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="V38" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="W38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="J40" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="V43" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>193</v>
+        <v>182</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3602,30 +3626,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3709,7 +3733,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>39</v>
@@ -3778,7 +3802,7 @@
         <v>54</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>56</v>
@@ -3789,64 +3813,64 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>76</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>69</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>27</v>
@@ -3858,7 +3882,7 @@
         <v>77</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>79</v>
@@ -3869,13 +3893,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -3893,10 +3917,10 @@
         <v>64</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>89</v>
@@ -3905,13 +3929,13 @@
         <v>67</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>71</v>
@@ -3923,7 +3947,7 @@
         <v>73</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>75</v>
@@ -3946,34 +3970,34 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>67</v>
@@ -3988,19 +4012,19 @@
         <v>70</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>74</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>95</v>
@@ -4020,34 +4044,34 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>66</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>99</v>
@@ -4062,12 +4086,12 @@
         <v>108</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -4077,16 +4101,16 @@
         <v>110</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>119</v>
@@ -4103,7 +4127,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
@@ -4116,10 +4140,10 @@
         <v>112</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>101</v>
@@ -4133,20 +4157,20 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>120</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>129</v>
@@ -4157,7 +4181,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -4170,7 +4194,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>107</v>
@@ -4181,7 +4205,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -4202,11 +4226,11 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>135</v>
@@ -4223,7 +4247,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -4233,7 +4257,7 @@
         <v>146</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>148</v>
@@ -4244,11 +4268,11 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>140</v>
@@ -4265,7 +4289,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
@@ -4286,54 +4310,54 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>141</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>146</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="9" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>150</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -4341,13 +4365,13 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="9" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -4355,13 +4379,13 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -4369,13 +4393,13 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -4383,13 +4407,13 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -4397,10 +4421,10 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>137</v>
@@ -4411,10 +4435,10 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>142</v>
@@ -4425,10 +4449,10 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -4436,10 +4460,10 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -4447,10 +4471,10 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -4459,7 +4483,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="U29" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -4468,7 +4492,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="U30" s="5" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -4477,7 +4501,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="U31" s="5" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -4505,30 +4529,30 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
+      <c r="A36" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
@@ -4606,324 +4630,324 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="U40" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="V40" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="E42" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H42" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="V42" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
@@ -4931,52 +4955,52 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D44" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D45" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V46" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5007,693 +5031,693 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -5707,400 +5731,418 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DA1169-2C93-47A0-96CD-8055F1566B0F}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A29" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="139" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B13" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B19" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B20" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B25" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B29" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B31" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>454</v>
-      </c>
-      <c r="B41" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>463</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>466</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>468</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>455</v>
-      </c>
-      <c r="B42" s="19" t="s">
+      <c r="B46" s="15" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>456</v>
-      </c>
-      <c r="B43" s="20" t="s">
+      <c r="C46" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>457</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="B45" s="18" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="B46" s="18" t="s">
+      <c r="B47" s="15" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="B48" s="22" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="B51" s="22" t="s">
+      <c r="B48" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C48" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="24" t="s">
+      <c r="B51" s="19" t="s">
         <v>482</v>
+      </c>
+      <c r="C51" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C53" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C54" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="21" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
